--- a/Netbeans/ANA-ADDIX/output/data_storage/response.xlsx
+++ b/Netbeans/ANA-ADDIX/output/data_storage/response.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\ANA\ANA_2020\ANA-VIETNAM\Netbeans\ANA-ADDIX\output\data_storge\backup\Data_storage_empty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\Sources\11. ChangeCodeANA\ANA-VIETNAM\Netbeans\ANA-ADDIX\output\data_storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2700BAB-E002-414B-A944-E9BB689ADCCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9096B4D-5271-4136-BD1E-9A3608353EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="932" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="932" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AI" sheetId="1" r:id="rId1"/>
@@ -37,18 +37,136 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
   <si>
     <t>Url</t>
   </si>
   <si>
     <t>url_articles</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2019/02/27/319571.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2018/02/19/306228.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2019/11/25/329129.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2019/05/14/322286.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2019/11/11/328602.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2019/04/03/320884.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2018/12/21/317416.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2018/08/31/313531.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2014/09/10/232104.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2014/09/10/232114.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2015/10/19/262285.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/release/kyodonews_kaigai/20150428/17526.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2013/10/21/209017.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2011/09/22/162695.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2018/07/25/312329.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/release/kyodonews_kaigai/20140723/11836.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/release/kyodonews_kaigai/20191011/60431.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/release/kyodonews_kaigai/20130710/3307.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2015/11/04/263565.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2019/12/06/329547.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2019/07/09/324248.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2019/11/30/329348.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2019/11/09/328553.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2019/04/18/321534.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2019/06/08/323236.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2019/09/20/326717.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2019/10/08/327359.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2019/06/04/323073.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2018/02/24/306467.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2019/03/26/320577.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2019/04/16/321415.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2019/03/15/320170.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2019/12/04/329454.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/special/recent/3532/%E4%BA%BA%E5%B7%A5%E7%9F%A5%E8%83%BD%EF%BC%88AI%EF%BC%89</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2019/08/02/325155.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2019/07/23/324728.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2019/12/08/329583.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2019/10/11/327509.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2017/06/28/296736.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -426,25 +544,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD706"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+  <dimension ref="A1:A22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -463,7 +681,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -483,25 +701,120 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD140"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -519,7 +832,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -547,7 +860,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -575,7 +888,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -603,7 +916,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -631,7 +944,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -659,7 +972,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -681,11 +994,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -713,7 +1026,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -741,7 +1054,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -769,7 +1082,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -797,7 +1110,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -825,7 +1138,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -853,7 +1166,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -879,7 +1192,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -907,7 +1220,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">

--- a/Netbeans/ANA-ADDIX/output/data_storage/response.xlsx
+++ b/Netbeans/ANA-ADDIX/output/data_storage/response.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\Sources\11. ChangeCodeANA\ANA-VIETNAM\Netbeans\ANA-ADDIX\output\data_storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9096B4D-5271-4136-BD1E-9A3608353EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CFFF7F-F65D-43E3-819E-43D671219635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="932" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="932" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AI" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
   <si>
     <t>Url</t>
   </si>
@@ -102,46 +102,43 @@
     <t>https://response.jp/article/2015/11/04/263565.html</t>
   </si>
   <si>
+    <t>https://response.jp/article/2019/07/09/324248.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2019/04/18/321534.html</t>
+  </si>
+  <si>
     <t>https://response.jp/article/2019/12/06/329547.html</t>
   </si>
   <si>
-    <t>https://response.jp/article/2019/07/09/324248.html</t>
-  </si>
-  <si>
     <t>https://response.jp/article/2019/11/30/329348.html</t>
   </si>
   <si>
+    <t>https://response.jp/article/2019/06/04/323073.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2019/06/08/323236.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2019/09/20/326717.html</t>
+  </si>
+  <si>
     <t>https://response.jp/article/2019/11/09/328553.html</t>
   </si>
   <si>
-    <t>https://response.jp/article/2019/04/18/321534.html</t>
-  </si>
-  <si>
-    <t>https://response.jp/article/2019/06/08/323236.html</t>
-  </si>
-  <si>
-    <t>https://response.jp/article/2019/09/20/326717.html</t>
-  </si>
-  <si>
-    <t>https://response.jp/article/2019/10/08/327359.html</t>
-  </si>
-  <si>
-    <t>https://response.jp/article/2019/06/04/323073.html</t>
-  </si>
-  <si>
-    <t>https://response.jp/article/2018/02/24/306467.html</t>
-  </si>
-  <si>
-    <t>https://response.jp/article/2019/03/26/320577.html</t>
+    <t>https://response.jp/article/2019/04/17/321474.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2019/12/04/329454.html</t>
+  </si>
+  <si>
+    <t>https://response.jp/article/2019/03/15/320170.html</t>
   </si>
   <si>
     <t>https://response.jp/article/2019/04/16/321415.html</t>
   </si>
   <si>
-    <t>https://response.jp/article/2019/03/15/320170.html</t>
-  </si>
-  <si>
-    <t>https://response.jp/article/2019/12/04/329454.html</t>
+    <t>https://response.jp/article/2019/07/23/324728.html</t>
   </si>
   <si>
     <t>https://response.jp/special/recent/3532/%E4%BA%BA%E5%B7%A5%E7%9F%A5%E8%83%BD%EF%BC%88AI%EF%BC%89</t>
@@ -150,13 +147,10 @@
     <t>https://response.jp/article/2019/08/02/325155.html</t>
   </si>
   <si>
-    <t>https://response.jp/article/2019/07/23/324728.html</t>
+    <t>https://response.jp/article/2019/06/20/323636.html</t>
   </si>
   <si>
     <t>https://response.jp/article/2019/12/08/329583.html</t>
-  </si>
-  <si>
-    <t>https://response.jp/article/2019/10/11/327509.html</t>
   </si>
   <si>
     <t>https://response.jp/article/2017/06/28/296736.html</t>
@@ -544,23 +538,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -655,16 +649,6 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -679,17 +663,17 @@
       <selection activeCell="A3" sqref="A3:XFD77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -707,112 +691,112 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -830,17 +814,17 @@
       <selection activeCell="A3" sqref="A3:XFD65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -858,17 +842,17 @@
       <selection activeCell="A3" sqref="A3:XFD85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -886,17 +870,17 @@
       <selection activeCell="A3" sqref="A3:XFD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -914,17 +898,17 @@
       <selection activeCell="A3" sqref="A3:XFD93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -942,17 +926,17 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -970,17 +954,17 @@
       <selection activeCell="A3" sqref="A3:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -996,17 +980,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1024,17 +1008,17 @@
       <selection activeCell="A3" sqref="A3:XFD154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1052,17 +1036,17 @@
       <selection activeCell="A3" sqref="A3:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1080,17 +1064,17 @@
       <selection activeCell="A3" sqref="A3:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1108,17 +1092,17 @@
       <selection activeCell="A3" sqref="A3:XFD190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1136,17 +1120,17 @@
       <selection activeCell="A3" sqref="A3:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1164,17 +1148,17 @@
       <selection activeCell="A3" sqref="A3:XFD56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1190,17 +1174,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1218,17 +1202,17 @@
       <selection activeCell="A3" sqref="A3:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
